--- a/src/main/resources/testdata/testdata.xlsx
+++ b/src/main/resources/testdata/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santh\IdeaProjects\irctc\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D22A894-13C8-4ED0-B5CE-AEDFF3E8E92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF081E0-4FF7-46C1-B1F3-C927AACAC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E7E67D5-C837-4BD7-83B6-22BFA9B04747}"/>
   </bookViews>
@@ -34,30 +34,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>To Station</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
   </si>
   <si>
     <t>From Station</t>
   </si>
   <si>
-    <t>Mumbra</t>
+    <t xml:space="preserve">KSR BENGALURU - SBC </t>
+  </si>
+  <si>
+    <t>HYDERABAD DECAN - HYB (SECUNDERABAD)</t>
   </si>
 </sst>
 </file>
@@ -423,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2DDAA22-3840-4469-A4B9-053CB2E1A5D4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,34 +424,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
